--- a/Revolving TOC GUI 2025-02-28 11.17.05.xlsx
+++ b/Revolving TOC GUI 2025-02-28 11.17.05.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
-      <!-- B4P: Insert the path name -->
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5444515566c7376a/Documents/Programme/B4P/b4p-docu-maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896E291B-0C54-4BEB-AF1C-75440916669B}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
-    <!-- B4P: Insert active sheet number, 1st one  = 0 -->
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOC" sheetId="1" r:id="rId11"/>
-    <!-- B4P: Sheet name and numbering -->
+    <sheet name="TOC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="278">
   <si>
     <t>Status</t>
   </si>
@@ -312,15 +309,6 @@
     <t>GUI_Features_Terms_and_Conditions.html</t>
   </si>
   <si>
-    <t>B 2.08</t>
-  </si>
-  <si>
-    <t>License Activation</t>
-  </si>
-  <si>
-    <t>GUI_Features_License_Activation.html</t>
-  </si>
-  <si>
     <t>B 3</t>
   </si>
   <si>
@@ -856,29 +844,46 @@
   </si>
   <si>
     <t>Release 11.02 - Yellowstone</t>
+  </si>
+  <si>
+    <t>Release 12.00</t>
+  </si>
+  <si>
+    <t>New, (Assign right Category), (Assign right Category), (Assign right Category), (Assign right Category), (Assign right Category), (Assign right Category)</t>
+  </si>
+  <si>
+    <t>Bpdy</t>
+  </si>
+  <si>
+    <t>Use case - Machine to Machine Data Transfer</t>
+  </si>
+  <si>
+    <t>Download B4P</t>
+  </si>
+  <si>
+    <t>https://github.com/georgzurbonsen/b4p-download</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <!-- $Insert Number Formats$ -->
-  <!-- No number formats specified -->
-  <!-- $Insert Fonts$ -->
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <b/>
     </font>
   </fonts>
-  <!-- $Insert Fills$ -->
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
@@ -911,7 +916,6 @@
       </patternFill>
     </fill>
   </fills>
-  <!-- $Insert Borders$ -->
   <borders count="1">
     <border>
       <left/>
@@ -924,13 +928,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <!-- $Insert all Styles$ -->
   <cellXfs count="5">
-    <xf numFmtId="0" borderId="0" fillId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" borderId="0" fillId="2" fontId="1" xfId="0" applyFill="1" applyFont="1"/>
-    <xf numFmtId="0" borderId="0" fillId="3" fontId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" borderId="0" fillId="4" fontId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" borderId="0" fillId="5" fontId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -938,6 +941,12 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -949,9 +958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -989,7 +998,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1095,7 +1104,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1237,31 +1246,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
-  <!-- B4P: Example: A1:Z9 -->
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <!-- $Def Width Height$ -->
-  <!-- $Insert Columns$ -->
   <cols>
-    <col customWidth="1" width="40.7109375" min="5" max="5"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <!-- $Insert Data$ -->
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25" customFormat="1" s="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1856,20 +1861,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F24" t="s">
@@ -1882,20 +1887,20 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F25" t="s">
@@ -1908,33 +1913,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F26" t="s">
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1945,22 +1950,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1971,74 +1976,74 @@
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2049,48 +2054,48 @@
         <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>121</v>
       </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2101,100 +2106,100 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
         <v>126</v>
       </c>
-      <c r="G33" t="s">
-        <v>127</v>
-      </c>
       <c r="H33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F34" t="s">
         <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4">
         <v>3</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>136</v>
       </c>
       <c r="F36" t="s">
         <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2205,48 +2210,48 @@
         <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
         <v>143</v>
       </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2257,108 +2262,108 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" t="s">
         <v>148</v>
       </c>
-      <c r="G39" t="s">
-        <v>149</v>
-      </c>
       <c r="H39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
         <v>150</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>151</v>
       </c>
       <c r="F40" t="s">
         <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="4">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4">
         <v>3</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="D42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F43" t="s">
@@ -2371,33 +2376,33 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F44" t="s">
         <v>166</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2408,22 +2413,22 @@
         <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2434,22 +2439,22 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
         <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2460,74 +2465,74 @@
         <v>3</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4">
-        <v>3</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>181</v>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="E49" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2538,22 +2543,22 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2564,22 +2569,22 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -2590,22 +2595,22 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
         <v>199</v>
       </c>
-      <c r="G52" t="s">
-        <v>200</v>
-      </c>
       <c r="H52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2628,10 +2633,10 @@
         <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2642,22 +2647,22 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2668,22 +2673,22 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2694,61 +2699,61 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
         <v>2</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" t="s">
-        <v>221</v>
-      </c>
-      <c r="H57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="4">
-        <v>3</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>223</v>
       </c>
       <c r="F58" t="s">
@@ -2761,7 +2766,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2781,39 +2786,39 @@
         <v>227</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E60" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="F60" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" t="s">
         <v>230</v>
       </c>
-      <c r="G60" t="s">
-        <v>231</v>
-      </c>
       <c r="H60" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2839,33 +2844,33 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F62" t="s">
         <v>237</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2876,92 +2881,90 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="H64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>243</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G65" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
         <v>244</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G66" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>245</v>
       </c>
-      <c r="H64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>153</v>
-      </c>
-      <c r="G65" t="s">
-        <v>245</v>
-      </c>
-      <c r="H65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
         <v>246</v>
       </c>
-      <c r="G66" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" t="s">
         <v>246</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>247</v>
-      </c>
-      <c r="G67" t="s">
-        <v>245</v>
-      </c>
-      <c r="H67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B68" t="s">
-        <v>249</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -2974,18 +2977,18 @@
         <v>251</v>
       </c>
       <c r="G68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -2998,114 +3001,116 @@
         <v>254</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
         <v>255</v>
       </c>
-      <c r="B70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+      <c r="G70" t="s">
+        <v>242</v>
+      </c>
+      <c r="H70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>256</v>
       </c>
-      <c r="F70" t="s">
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
         <v>257</v>
       </c>
-      <c r="G70" t="s">
-        <v>245</v>
-      </c>
-      <c r="H70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>259</v>
       </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
       <c r="E72" t="s">
+        <v>255</v>
+      </c>
+      <c r="G72" t="s">
+        <v>257</v>
+      </c>
+      <c r="H72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E73" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G72" t="s">
-        <v>260</v>
-      </c>
-      <c r="H72" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="F73" t="s">
         <v>262</v>
       </c>
-      <c r="E73" t="s">
-        <v>258</v>
-      </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>264</v>
       </c>
       <c r="F74" t="s">
         <v>265</v>
       </c>
       <c r="G74" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H74" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3116,22 +3121,22 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -3142,24 +3147,52 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F76" t="s">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>272</v>
       </c>
-      <c r="G76" t="s">
+      <c r="B77" t="s">
         <v>273</v>
       </c>
-      <c r="H76" t="s">
-        <v>273</v>
+      <c r="E77" t="s">
+        <v>277</v>
+      </c>
+      <c r="G77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" t="s">
+        <v>276</v>
+      </c>
+      <c r="G78" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>